--- a/data/soe_tables_2024.01.26.xlsx
+++ b/data/soe_tables_2024.01.26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CEB88E-23D7-2345-83CF-37E859D61995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633DB658-E83D-934C-BA9B-2EBB2734062F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15840" activeTab="4" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="5" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="sch_ta1_pl_eff" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="pd_ta1_pl_eff" sheetId="3" r:id="rId3"/>
     <sheet name="all_ta1_pl_saf" sheetId="4" r:id="rId4"/>
     <sheet name="all_ta1_apd_saf" sheetId="5" r:id="rId5"/>
+    <sheet name="mechanisticOutcome_x0009_Timepoint_x0009_Su" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="209">
   <si>
     <t>Outcome</t>
   </si>
@@ -625,6 +626,48 @@
   </si>
   <si>
     <t>Insomnia (Figure 64)</t>
+  </si>
+  <si>
+    <t>Other biases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fMRI of BOLD striatal responses to reward processing, measured during the anticipatory phase of the Monetary Incentive Delay task in healthy volunteers with low or high schizotypy traits, treated with a single dose of ulotaront, placebo, or amisulpride. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hours after treatment </t>
+  </si>
+  <si>
+    <t>N=1, n=96; In anticipation of loss, ulotaront appeared to be associated with smaller BOLD striatal responses compared to placebo (left: -0.13%, p=0.03; right: -0.12%, p=0.06) but not to amisulpride (left: -0.07%, p=0.38; right: -0.03%, p=0.66). In anticipation of a win, ulotaront did not seem to differ in BOLD striatal responses compared to placebo (left: -0.07%, p=0.30; right: -0.07%, p=0.27) and amisulpride (left: -0.03%, p=0.65; right: -0.02%, p=0.74). The interaction with schizotypy traits for BOLD striatal responses was not reported. However, it was reported that ulotaront could reverse, in comparison to placebo, the aberrant BOLD right insular responses to anticipation of loss in participants with high schizotypy traits.</t>
+  </si>
+  <si>
+    <t>Some concerns: The study had a low risk of bias (Figure 2), but it is unclear whether the selection of the primary outcome reported in this table was determined a priori or a posteriori. The findings from all measured outcomes were reported, but not all those regarding interactions with schizotypy traits. Nevertheless, the possibility of bias due to selectively reported results cannot be excluded. This bias could have exaggerated the findings in favor of ulotaront.</t>
+  </si>
+  <si>
+    <t>Low risk: No other experimental study was identified in our search with fMRI measures.</t>
+  </si>
+  <si>
+    <t>Some concerns: The study did not include participants with psychosis, but healthy volunteers with low and high schizotypy traits. The impact of the bias on the magnitude and direction is unclear.</t>
+  </si>
+  <si>
+    <t>Some concerns: Ulotaront appeared to cause sedation in 60% of the participants, more frequently compared to placebo (Figure 36) and amisulpride (Figure 63). Consequently, ulotaront was associated with decreased performance and accuracy across the different neuropsychological tasks used in the study, but it was not correlated with the BOLD responses and impaired reaction times by &lt;10% in this task. The impact of this bias on the magnitude and direction of the effects for this outcome is unclear.</t>
+  </si>
+  <si>
+    <t>Dopamine synthesis capacity in the striatum measured with F-DOPA PET in clinically stable patients with schizophrenia treated with ulotaront as add-on to antipsychotic treatment</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>N=1, n=22; Reduction of dopamine synthesis capacity in the striatum: -3.98%, 95% CI: -8.68%, 0.72% (reductions in all striatal subregions). This effect was not found to be correlated with improvement in overall symptoms (r=0.19, p&gt;0.05), but it was correlated with reductions in positive symptoms (r=0.49, p&lt;0.05).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low risk: No other experimental study was identified in our search with PET measures. </t>
+  </si>
+  <si>
+    <t>No indication of other biases</t>
+  </si>
+  <si>
+    <t>High risk: The study was single arm without control conditions, and open label. The outcome measure can be considered objective. Uncontrolled findings may be exaggerated.</t>
   </si>
 </sst>
 </file>
@@ -732,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -748,6 +791,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2321,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D28D98F-934C-324D-A021-B678B5C46157}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
@@ -2859,4 +2905,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA8AE1-5A15-F84E-8EB5-3F360E7F80BD}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/soe_tables_2024.01.26.xlsx
+++ b/data/soe_tables_2024.01.26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633DB658-E83D-934C-BA9B-2EBB2734062F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B05A56C-DAC6-2C4E-B0E2-6331CD11FDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="5" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="sch_ta1_pl_eff" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="208">
   <si>
     <t>Outcome</t>
   </si>
@@ -52,18 +52,6 @@
     <t>Summary of the association</t>
   </si>
   <si>
-    <t>Bias due to study limitations</t>
-  </si>
-  <si>
-    <t>Bias due to. Reporting bias</t>
-  </si>
-  <si>
-    <t>Bias due to indirectness</t>
-  </si>
-  <si>
-    <t>Bias due to other reasons</t>
-  </si>
-  <si>
     <t>Overall symptoms (PANSS total)  - primary outcome (Figure 3)</t>
   </si>
   <si>
@@ -668,6 +656,15 @@
   </si>
   <si>
     <t>High risk: The study was single arm without control conditions, and open label. The outcome measure can be considered objective. Uncontrolled findings may be exaggerated.</t>
+  </si>
+  <si>
+    <t>Within-study biases</t>
+  </si>
+  <si>
+    <t>Across-studies biases</t>
+  </si>
+  <si>
+    <t>Indirectness</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE69A57-5664-7440-A961-B0C632901626}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,138 +1138,138 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1288,7 +1285,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1297,138 +1294,138 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1438,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1450,115 +1447,115 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1571,7 +1568,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G34"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,782 +1577,782 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2365,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G23"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2377,529 +2374,529 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2911,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA8AE1-5A15-F84E-8EB5-3F360E7F80BD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2928,62 +2925,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
